--- a/2.11.+Covariance_exercise.xlsx
+++ b/2.11.+Covariance_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\Statistics\Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5E5EE-F113-4787-8E45-810CB156B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591CC29-31E0-4197-98ED-A64BFFB3B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Housing data</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem with covariance is that we can't interpret the number </t>
+  </si>
+  <si>
+    <t>as this number can lie between 0 to infinite same for negative covariance.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -550,7 +559,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2330,6 +2339,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82E8BA9-0E47-40DE-BE19-E0FF4D4BC0E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11102341" y="1417321"/>
+          <a:ext cx="3497580" cy="2159509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2677,7 +2730,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2872,8 +2925,8 @@
     </row>
     <row r="17" spans="2:8" ht="12" x14ac:dyDescent="0.25">
       <c r="G17" s="28">
-        <f>SUM(G12:G16)/4</f>
-        <v>21155.55</v>
+        <f>SUM(G12:G16)</f>
+        <v>84622.2</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -2881,16 +2934,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="23">
+        <v>5</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <f>G17/(G18-1)</f>
+        <v>21155.55</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.25">
@@ -2907,12 +2969,16 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="F22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="13"/>
+    <row r="23" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="F23" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
